--- a/biology/Zoologie/Compsobuthus_matthiesseni/Compsobuthus_matthiesseni.xlsx
+++ b/biology/Zoologie/Compsobuthus_matthiesseni/Compsobuthus_matthiesseni.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Compsobuthus matthiesseni est une espèce de scorpions de la famille des Buthidae.
 </t>
@@ -511,9 +523,11 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce se rencontre en Iran, en Irak, en Turquie[1] et en Syrie[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce se rencontre en Iran, en Irak, en Turquie et en Syrie.
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le mâle décrit par Sissom et Fet en 1998 mesure 37,60 mm et la femelle 43,95 mm[3].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le mâle décrit par Sissom et Fet en 1998 mesure 37,60 mm et la femelle 43,95 mm.
 </t>
         </is>
       </c>
@@ -573,11 +589,13 @@
           <t>Systématique et taxinomie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce a été décrite sous le protonyme Buthus acutecarinatus matthiesseni par Birula en 1905. Elle est élevée au rang d'espèce et placée dans le genre Compsobuthus par Vachon en 1949[4].
-Compsobuthus williamsi[5] a été placée en synonymie par Kovařík en 2018[6].
-Compsobuthus iraqensis[7] a été placée en synonymie par Kachel, Al-Khazali, Hussen et Yağmur en 2021[8].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce a été décrite sous le protonyme Buthus acutecarinatus matthiesseni par Birula en 1905. Elle est élevée au rang d'espèce et placée dans le genre Compsobuthus par Vachon en 1949.
+Compsobuthus williamsi a été placée en synonymie par Kovařík en 2018.
+Compsobuthus iraqensis a été placée en synonymie par Kachel, Al-Khazali, Hussen et Yağmur en 2021.
 </t>
         </is>
       </c>
@@ -606,9 +624,11 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce est nommée en l'honneur d'A. A. Matthiessen[9].
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce est nommée en l'honneur d'A. A. Matthiessen.
 </t>
         </is>
       </c>
@@ -637,7 +657,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t>Birula, 1905 : « Beiträge zur Kenntniss der Scorpionenfauna Persiens (Dritter Beiträge). » Bulletin de l'Académie impériale des sciences de St.-Pétersbourg, sér. 5, vol. 23, p. 119-148 (texte intégral).</t>
         </is>
